--- a/biology/Écologie/Science_du_système_Terre/Science_du_système_Terre.xlsx
+++ b/biology/Écologie/Science_du_système_Terre/Science_du_système_Terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Science_du_syst%C3%A8me_Terre</t>
+          <t>Science_du_système_Terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La science du système Terre, en anglais Earth system science, est une discipline scientifique intégrant diverses études académiques dans le but de comprendre la Terre, considérée comme un système et constituée de l'atmosphère, de l'hydrosphère, de la lithosphère et de la biosphère[1]. Le nom de géophysiologie, proposée par James Lovelock, y est synonyme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La science du système Terre, en anglais Earth system science, est une discipline scientifique intégrant diverses études académiques dans le but de comprendre la Terre, considérée comme un système et constituée de l'atmosphère, de l'hydrosphère, de la lithosphère et de la biosphère. Le nom de géophysiologie, proposée par James Lovelock, y est synonyme.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Science_du_syst%C3%A8me_Terre</t>
+          <t>Science_du_système_Terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1996, l'American Geophysical Union, en coopération avec le Keck Geology Consortium et avec l'aide de cinq laboratoires de la National Science Foundation, organise un atelier pour « définir les objectifs communs entre chaque discipline des sciences de la Terre ». La Terre y est vue comme un ensemble de systèmes en interactions. Il a été décidé également de constituer une filière d'étude, en relation avec la National Science Foundation[2].
-Le Science Education Resource Center (SERC), installé au Carleton College en propose la définition suivante[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996, l'American Geophysical Union, en coopération avec le Keck Geology Consortium et avec l'aide de cinq laboratoires de la National Science Foundation, organise un atelier pour « définir les objectifs communs entre chaque discipline des sciences de la Terre ». La Terre y est vue comme un ensemble de systèmes en interactions. Il a été décidé également de constituer une filière d'étude, en relation avec la National Science Foundation.
+Le Science Education Resource Center (SERC), installé au Carleton College en propose la définition suivante :
 « Earth system science intègre la chimie, la physique, la biologie, les mathématiques et les sciences appliquées dans une approche multidisciplinaire considérant la Terre comme un système intégré et visant à comprendre les interactions physiques, chimiques, biologiques et humaines qui déterminent le passé, le présent et le futur de la planète. Earth system science fournit une compréhension de base physique du monde dans lequel nous vivons et où l'humanité tente de se maintenir[trad 1]. »
-Les études relatives à la discipline de la Earth system science sont publiées au sein du Journal of Earth System Science (en), anciennement titré Proceedings of the Indian Academy of Sciences[4].
+Les études relatives à la discipline de la Earth system science sont publiées au sein du Journal of Earth System Science (en), anciennement titré Proceedings of the Indian Academy of Sciences.
 L'ouvrage de Lee Kump, James Kasting et Robert Crane, The Earth System, fournit l'état des connaissances actuelles sur les liens complexes qui unissent les algues, la production de soufre gazeux, la chimie atmosphérique, la physique des nuages et le climat.
 </t>
         </is>
